--- a/ManpowerOnTap/Resources/Specs.xlsx
+++ b/ManpowerOnTap/Resources/Specs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="56">
   <si>
     <t>Options</t>
   </si>
@@ -54,15 +54,9 @@
     <t xml:space="preserve">Higher Taxation with No Children </t>
   </si>
   <si>
-    <t>Child Support Services</t>
-  </si>
-  <si>
     <t>100 PP</t>
   </si>
   <si>
-    <t>Stability 5%</t>
-  </si>
-  <si>
     <t>Many Child Policy</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
   </si>
   <si>
     <t>Encourage Women to have Children</t>
-  </si>
-  <si>
-    <t>Consumer Goods Factory Factor +2.5%</t>
   </si>
   <si>
     <t>Consumer Goods Factory Factor +3.0%</t>
@@ -114,9 +105,6 @@
     <t>Ideology Drift Defence -10%</t>
   </si>
   <si>
-    <t>Stability -2.5%</t>
-  </si>
-  <si>
     <t>Occupied Conscription</t>
   </si>
   <si>
@@ -126,7 +114,96 @@
     <t>Non-Core Manpower +5%</t>
   </si>
   <si>
-    <t>Family Health Support</t>
+    <t>Child Support Services Scheme</t>
+  </si>
+  <si>
+    <t>Unsuitable Now Suitable</t>
+  </si>
+  <si>
+    <t>120 PP</t>
+  </si>
+  <si>
+    <t>Families First</t>
+  </si>
+  <si>
+    <t>Family Health Inititive</t>
+  </si>
+  <si>
+    <t>Youth Military Service</t>
+  </si>
+  <si>
+    <t>Stability -10%
+War Support -5%</t>
+  </si>
+  <si>
+    <t>Wounded but not Dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incentivise Adoption </t>
+  </si>
+  <si>
+    <t>Stability 3%</t>
+  </si>
+  <si>
+    <t>Added?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>40 PP</t>
+  </si>
+  <si>
+    <t>Financial Support for Single Parents</t>
+  </si>
+  <si>
+    <t>Encourage Polygamy</t>
+  </si>
+  <si>
+    <t>75 PP</t>
+  </si>
+  <si>
+    <t>Recruitable Population</t>
+  </si>
+  <si>
+    <t>Construction Speed -10%
+Factory Output -10%
+Dockyard Output -10%</t>
+  </si>
+  <si>
+    <t>Equality in the Military</t>
+  </si>
+  <si>
+    <t>Ideological Beacon</t>
+  </si>
+  <si>
+    <t>0.10 PP</t>
+  </si>
+  <si>
+    <t>International Welfare State</t>
+  </si>
+  <si>
+    <t>Consumer Goods Factory Factor +5.0%
+0.10 PP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Weekly Manpower +300
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ideology Drift Defence -10%</t>
+    </r>
+  </si>
+  <si>
+    <t>Weekly Manpower +400</t>
   </si>
 </sst>
 </file>
@@ -134,9 +211,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +230,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -198,44 +282,72 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0%"/>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD5BC05"/>
+      <color rgb="FFB5AF39"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:H35" totalsRowShown="0">
-  <autoFilter ref="B2:H35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:J36" totalsRowShown="0">
+  <autoFilter ref="B2:J36">
     <filterColumn colId="0"/>
+    <filterColumn colId="1"/>
+    <filterColumn colId="7"/>
   </autoFilter>
-  <sortState ref="B3:H35">
-    <sortCondition ref="B2:B35"/>
+  <sortState ref="B3:J36">
+    <sortCondition ref="B2:B36"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="8" name="Type" dataDxfId="1"/>
+  <tableColumns count="9">
+    <tableColumn id="8" name="Type" dataDxfId="3"/>
+    <tableColumn id="7" name="Added?" dataDxfId="2"/>
     <tableColumn id="1" name="Options"/>
     <tableColumn id="2" name="Cost"/>
     <tableColumn id="3" name="Upkeep Per Day"/>
     <tableColumn id="4" name="Bonuses (Once Off)"/>
-    <tableColumn id="5" name="Recruitable Population Factor" dataDxfId="0"/>
+    <tableColumn id="5" name="Recruitable Population" dataDxfId="1"/>
+    <tableColumn id="9" name="Recruitable Population Factor" dataDxfId="0"/>
     <tableColumn id="6" name="Bonus Monthly Population Growth"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -527,406 +639,727 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H35"/>
+  <dimension ref="B2:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="40.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" customWidth="1"/>
+    <col min="9" max="9" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:10">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:10">
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="G4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:10">
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>35</v>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
+        <v>17</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
+      <c r="C9" s="2"/>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="H9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="12">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="60">
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="H17" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="I17" s="16">
+        <v>0.125</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="30">
+      <c r="B18" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="2">
+      <c r="C18" s="2"/>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="I18" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="2">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="45">
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="9">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="60">
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="2"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="2"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="2"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="2"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="2"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="2"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="2"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="2"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="2"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="2"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="2:7">
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="30">
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="30">
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25" s="2"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="2:7">
+      <c r="C25" s="2"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="2"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="2:7">
+      <c r="C26" s="2"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="2"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="2:7">
+      <c r="C27" s="2"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="2"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="2:7">
+      <c r="C28" s="2"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="2"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="2:7">
+      <c r="C29" s="2"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30" s="2"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="2:7">
+      <c r="C30" s="2"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="2:10">
       <c r="B31" s="2"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="2:7">
+      <c r="C31" s="2"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="2:10">
       <c r="B32" s="2"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="2:7">
+      <c r="C32" s="2"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" s="2"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="2:7">
+      <c r="C33" s="2"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="2:9">
       <c r="B34" s="2"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="2:7">
+      <c r="C34" s="2"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35" s="2"/>
-      <c r="G35" s="9"/>
+      <c r="C35" s="2"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ManpowerOnTap/Resources/Specs.xlsx
+++ b/ManpowerOnTap/Resources/Specs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="62">
   <si>
     <t>Options</t>
   </si>
@@ -75,16 +75,10 @@
     <t>Immigration Drive</t>
   </si>
   <si>
-    <t xml:space="preserve">Penel Battalions </t>
-  </si>
-  <si>
     <t>Relax Child Labour Laws</t>
   </si>
   <si>
     <t>Overshoot Population</t>
-  </si>
-  <si>
-    <t>Consumer Goods Factory Factor +10.0%</t>
   </si>
   <si>
     <t>Consumer Goods Factory Factor +5.0%</t>
@@ -111,9 +105,6 @@
     <t>200 PP</t>
   </si>
   <si>
-    <t>Non-Core Manpower +5%</t>
-  </si>
-  <si>
     <t>Child Support Services Scheme</t>
   </si>
   <si>
@@ -124,9 +115,6 @@
   </si>
   <si>
     <t>Families First</t>
-  </si>
-  <si>
-    <t>Family Health Inititive</t>
   </si>
   <si>
     <t>Youth Military Service</t>
@@ -155,9 +143,6 @@
   </si>
   <si>
     <t>Financial Support for Single Parents</t>
-  </si>
-  <si>
-    <t>Encourage Polygamy</t>
   </si>
   <si>
     <t>75 PP</t>
@@ -183,12 +168,26 @@
     <t>International Welfare State</t>
   </si>
   <si>
-    <t>Consumer Goods Factory Factor +5.0%
-0.10 PP</t>
+    <t>Family Health Initiative</t>
+  </si>
+  <si>
+    <t>Consumer Goods Factory Factor +12.0%</t>
+  </si>
+  <si>
+    <t>Stability -7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penal Battalions </t>
+  </si>
+  <si>
+    <t>Ideology Drift Defence -5%</t>
+  </si>
+  <si>
+    <t>Weekly Manpower +300</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Weekly Manpower +300
+      <t xml:space="preserve">Weekly Manpower +250
 </t>
     </r>
     <r>
@@ -203,7 +202,26 @@
     </r>
   </si>
   <si>
-    <t>Weekly Manpower +400</t>
+    <t>Consumer Goods Factory Factor +5.0%
+0.15 PP</t>
+  </si>
+  <si>
+    <t>Non-Core Manpower +10%</t>
+  </si>
+  <si>
+    <t>Encourage Multiple Partners</t>
+  </si>
+  <si>
+    <t>State Arranged Marriages</t>
+  </si>
+  <si>
+    <t>Consumer Goods Factory Factor +9.0%</t>
+  </si>
+  <si>
+    <t>Family Poverty Eradication</t>
+  </si>
+  <si>
+    <t>Ban Contraception</t>
   </si>
 </sst>
 </file>
@@ -262,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -300,6 +318,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -663,7 +684,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -678,10 +699,10 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
@@ -692,19 +713,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>3</v>
@@ -721,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -750,10 +771,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -779,19 +800,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>3</v>
@@ -799,26 +820,28 @@
       <c r="I6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="8">
-        <v>0.3</v>
+      <c r="J6" s="4">
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>3</v>
@@ -826,26 +849,28 @@
       <c r="I7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="4">
-        <v>0.4</v>
+      <c r="J7" s="8">
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>3</v>
@@ -853,7 +878,7 @@
       <c r="I8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="4">
         <v>0.4</v>
       </c>
     </row>
@@ -861,18 +886,20 @@
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>3</v>
@@ -881,25 +908,27 @@
         <v>3</v>
       </c>
       <c r="J9" s="8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>3</v>
@@ -915,9 +944,11 @@
       <c r="B11" s="2">
         <v>1</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -926,7 +957,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>3</v>
@@ -942,9 +973,11 @@
       <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -952,16 +985,16 @@
       <c r="F12" t="s">
         <v>3</v>
       </c>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="12">
-        <v>-5.0000000000000001E-3</v>
+      <c r="G12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>3</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="8">
         <v>0.5</v>
       </c>
     </row>
@@ -969,15 +1002,17 @@
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>8</v>
@@ -988,26 +1023,28 @@
       <c r="I13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="4">
-        <v>1.5</v>
+      <c r="J13" s="8">
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="2">
         <v>1</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>3</v>
@@ -1016,114 +1053,122 @@
         <v>3</v>
       </c>
       <c r="J14" s="4">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="14">
-        <v>3.0000000000000001E-3</v>
+        <v>59</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>3</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>3</v>
+      <c r="J15" s="8">
+        <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="15">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="60">
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="12">
+        <v>-0.01</v>
+      </c>
+      <c r="I16" s="18">
+        <v>-0.1</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="I17" s="16">
-        <v>0.125</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="30">
+        <v>49</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="2">
         <v>2</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>37</v>
+      <c r="G18" t="s">
+        <v>3</v>
       </c>
       <c r="H18" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="I18" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="J18" s="10" t="s">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1131,9 +1176,11 @@
       <c r="B19" s="2">
         <v>2</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -1142,67 +1189,71 @@
         <v>3</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="14">
-        <v>2E-3</v>
-      </c>
-      <c r="I19" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
+        <v>52</v>
+      </c>
+      <c r="H19" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="60">
       <c r="B20" s="2">
         <v>2</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>8</v>
+      <c r="G20" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="H20" s="14">
         <v>0.01</v>
       </c>
       <c r="I20" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="45">
+        <v>0.12</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="30">
       <c r="B21" s="2">
         <v>2</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0.01</v>
+        <v>33</v>
+      </c>
+      <c r="H21" s="14">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I21" s="16">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>3</v>
@@ -1210,102 +1261,175 @@
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
         <v>29</v>
       </c>
-      <c r="F22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="E23" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="30">
-      <c r="B23" s="2">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
       <c r="F23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="45">
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="30">
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="30">
-      <c r="B24" s="2">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="H25" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="30">
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="10">
+      <c r="H26" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="8">
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-    </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="2"/>

--- a/ManpowerOnTap/Resources/Specs.xlsx
+++ b/ManpowerOnTap/Resources/Specs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="62">
   <si>
     <t>Options</t>
   </si>
@@ -93,9 +93,6 @@
 Dockyard Output -10%</t>
   </si>
   <si>
-    <t>150 PP</t>
-  </si>
-  <si>
     <t>Ideology Drift Defence -10%</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
   </si>
   <si>
     <t>Unsuitable Now Suitable</t>
-  </si>
-  <si>
-    <t>120 PP</t>
   </si>
   <si>
     <t>Families First</t>
@@ -122,9 +116,6 @@
   <si>
     <t>Stability -10%
 War Support -5%</t>
-  </si>
-  <si>
-    <t>Wounded but not Dead</t>
   </si>
   <si>
     <t xml:space="preserve">Incentivise Adoption </t>
@@ -222,6 +213,15 @@
   </si>
   <si>
     <t>Ban Contraception</t>
+  </si>
+  <si>
+    <t>20 PP</t>
+  </si>
+  <si>
+    <t>45 PP</t>
+  </si>
+  <si>
+    <t>60 PP</t>
   </si>
 </sst>
 </file>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -684,7 +684,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -713,19 +713,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>3</v>
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -771,13 +771,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -800,13 +800,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>4</v>
@@ -829,19 +829,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>3</v>
@@ -858,19 +858,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>3</v>
@@ -887,19 +887,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>3</v>
@@ -916,13 +916,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
@@ -945,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -957,7 +957,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>3</v>
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1003,13 +1003,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
         <v>3</v>
@@ -1032,10 +1032,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -1061,19 +1061,19 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>3</v>
@@ -1090,13 +1090,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
         <v>3</v>
@@ -1119,19 +1119,19 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>3</v>
@@ -1148,13 +1148,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
         <v>3</v>
@@ -1177,19 +1177,19 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H19" s="15">
         <v>5.0000000000000001E-3</v>
@@ -1206,13 +1206,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
         <v>3</v>
@@ -1235,19 +1235,19 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H21" s="14">
         <v>1.4999999999999999E-2</v>
@@ -1263,12 +1263,14 @@
       <c r="B22" s="2">
         <v>2</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
         <v>3</v>
@@ -1277,71 +1279,71 @@
         <v>8</v>
       </c>
       <c r="H22" s="14">
-        <v>2E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I22" s="16">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" ht="45">
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="14">
-        <v>0.01</v>
+      <c r="G23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.02</v>
       </c>
       <c r="I23" s="16">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="45">
+    <row r="24" spans="2:10" ht="30">
       <c r="B24" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="I24" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>3</v>
+      <c r="G24" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.05</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="30">
@@ -1349,19 +1351,19 @@
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" t="s">
-        <v>46</v>
+        <v>26</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>3</v>
@@ -1370,26 +1372,26 @@
         <v>3</v>
       </c>
       <c r="J25" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="2">
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>53</v>
       </c>
       <c r="H26" s="10" t="s">
@@ -1398,38 +1400,17 @@
       <c r="I26" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="8">
-        <v>0.1</v>
+      <c r="J26" s="10" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="2">
-        <v>3</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="10"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="2"/>
